--- a/src/assets/data/Large Intestine_R1_EMQVerify06212020.xlsx
+++ b/src/assets/data/Large Intestine_R1_EMQVerify06212020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hpaul/Work/CNS/ccf-asct-reporter/src/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hpaul/Work/CNS/ccf-asct-reporter/src/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072B8463-F2EA-3C48-8D49-3AAC64015A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47143BA7-1C2A-2D47-81AF-5A00C288BF7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="460" windowWidth="31660" windowHeight="25080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="31660" windowHeight="25080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large Intestine_R1" sheetId="1" r:id="rId1"/>
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="E99" zoomScale="157" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
